--- a/Analysis/verification/consistency_test/throughput/bosses/bosses_defeated_mean_service_time_2-and-3.xlsx
+++ b/Analysis/verification/consistency_test/throughput/bosses/bosses_defeated_mean_service_time_2-and-3.xlsx
@@ -251,7 +251,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -271,7 +271,7 @@
               <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Mean Number of Bosses Defeated</a:t>
+              <a:t>Consistency Test - Mean Number of Bosses Defeated</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -280,8 +280,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.309313053235257"/>
-          <c:y val="0.0351041223969401"/>
+          <c:x val="0.246542728331898"/>
+          <c:y val="0.0353205849268841"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -299,10 +299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.114387233512031"/>
-          <c:y val="0.106502337441564"/>
-          <c:w val="0.83979553671612"/>
-          <c:h val="0.707352316192095"/>
+          <c:x val="0.114381237019401"/>
+          <c:y val="0.106486689163855"/>
+          <c:w val="0.801377843067727"/>
+          <c:h val="0.666591676040495"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -453,11 +453,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="-100"/>
-        <c:axId val="55907627"/>
-        <c:axId val="27119976"/>
+        <c:axId val="51725985"/>
+        <c:axId val="8399280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55907627"/>
+        <c:axId val="51725985"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,8 +487,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.500436354569256"/>
-              <c:y val="0.824734381640459"/>
+              <c:x val="0.500329263968391"/>
+              <c:y val="0.824371953505812"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -521,7 +521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27119976"/>
+        <c:crossAx val="8399280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27119976"/>
+        <c:axId val="8399280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55907627"/>
+        <c:crossAx val="51725985"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -608,15 +608,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.331418581418581"/>
-          <c:y val="0.872588185295368"/>
-          <c:w val="0.388236763236763"/>
-          <c:h val="0.100297492562686"/>
+          <c:x val="0.424926148517877"/>
+          <c:y val="0.883614548181477"/>
+          <c:w val="0.200468574921055"/>
+          <c:h val="0.085639295088114"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -662,10 +662,10 @@
       <xdr:rowOff>43920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>498240</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>177480</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -673,8 +673,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27805680" y="601920"/>
-        <a:ext cx="5774760" cy="4235040"/>
+        <a:off x="27823680" y="601920"/>
+        <a:ext cx="7106400" cy="4800240"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -694,25 +694,25 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="R1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="24.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="15.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="22.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.38"/>

--- a/Analysis/verification/consistency_test/throughput/bosses/bosses_defeated_mean_service_time_2-and-3.xlsx
+++ b/Analysis/verification/consistency_test/throughput/bosses/bosses_defeated_mean_service_time_2-and-3.xlsx
@@ -251,7 +251,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -280,8 +280,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.246542728331898"/>
-          <c:y val="0.0353205849268841"/>
+          <c:x val="0.246477806392971"/>
+          <c:y val="0.0354758868971724"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -299,10 +299,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.114381237019401"/>
-          <c:y val="0.106486689163855"/>
-          <c:w val="0.801377843067727"/>
-          <c:h val="0.666591676040495"/>
+          <c:x val="0.114376609604605"/>
+          <c:y val="0.106427660691517"/>
+          <c:w val="0.813664596273292"/>
+          <c:h val="0.70276756918923"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -453,11 +453,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="-100"/>
-        <c:axId val="51725985"/>
-        <c:axId val="8399280"/>
+        <c:axId val="55714223"/>
+        <c:axId val="58257406"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51725985"/>
+        <c:axId val="55714223"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,8 +487,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.500329263968391"/>
-              <c:y val="0.824371953505812"/>
+              <c:x val="0.500277735696612"/>
+              <c:y val="0.824195604890122"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -521,7 +521,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8399280"/>
+        <c:crossAx val="58257406"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -529,7 +529,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8399280"/>
+        <c:axId val="58257406"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -559,7 +559,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Number of Defeated Bosses</a:t>
+                  <a:t>Mean Number of Defeated Bosses</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -594,7 +594,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51725985"/>
+        <c:crossAx val="55714223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -613,10 +613,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.424926148517877"/>
-          <c:y val="0.883614548181477"/>
-          <c:w val="0.200468574921055"/>
-          <c:h val="0.085639295088114"/>
+          <c:x val="0.273053226946773"/>
+          <c:y val="0.883738373837384"/>
+          <c:w val="0.487072012927987"/>
+          <c:h val="0.0855085508550855"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -663,9 +663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -673,8 +673,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="27823680" y="601920"/>
-        <a:ext cx="7106400" cy="4800240"/>
+        <a:off x="27833760" y="601920"/>
+        <a:ext cx="7128720" cy="4799520"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -694,11 +694,11 @@
   </sheetPr>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V16" activeCellId="0" sqref="V16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AH31" activeCellId="0" sqref="AH31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.71"/>
